--- a/branches/update-profile-slicing/StructureDefinition-covid19-specimen.xlsx
+++ b/branches/update-profile-slicing/StructureDefinition-covid19-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T14:48:32+00:00</t>
+    <t>2022-09-09T09:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3041,7 +3041,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>170</v>
       </c>
@@ -3051,13 +3051,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
